--- a/archivos - Primera entrega/Justificaciones-de-Decisiones-para-TP-Anual .xlsx
+++ b/archivos - Primera entrega/Justificaciones-de-Decisiones-para-TP-Anual .xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pablo\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Moya\Desktop\TP-Integrador-DS\archivos - Primera entrega\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8A62F7A9-96E8-4C12-88B6-51A7767CABD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F4BC0B3A-C7C4-4A0E-9B3C-8F9624B35ED4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20520" yWindow="-120" windowWidth="20640" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PrimeraEntrega" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="48">
   <si>
     <t>Decisión</t>
   </si>
@@ -34,9 +34,6 @@
     <t>Justificación de la decisión</t>
   </si>
   <si>
-    <t>En el Area meter la lista de Miembros y la Organizacion.</t>
-  </si>
-  <si>
     <t>Agrupar en el Area  todos los datos  del Miembro que se pueda pedir de Miembro x Organizacion mas el Area.</t>
   </si>
   <si>
@@ -46,15 +43,6 @@
     <t>Trayecto, Tramo</t>
   </si>
   <si>
-    <t>Usar Espacio para guardar la direccion, y que estos sean el inicio y fin de cada Trayecto/Tramo.</t>
-  </si>
-  <si>
-    <t>Poner un atributo ubicacion en Tramo/Trayecto.</t>
-  </si>
-  <si>
-    <t>Facilitar el acceso a las distintas ubicaciones del Miembro.</t>
-  </si>
-  <si>
     <t>Todos los tipos de transporte heredan de Transporte.</t>
   </si>
   <si>
@@ -95,9 +83,6 @@
   </si>
   <si>
     <t>Autorizacion contenga a Miembro y Usuario</t>
-  </si>
-  <si>
-    <t>Un Miembro puede conocer muchos Usuarios por esto la Autorizacion.</t>
   </si>
   <si>
     <t>TransportePrivado</t>
@@ -107,9 +92,6 @@
 (Objetos / Arquitectura / Persistencia / Otro) </t>
   </si>
   <si>
-    <t>utilizar una entidad por subclase</t>
-  </si>
-  <si>
     <t>Resolver herencia de la clase transporte una unica entidad</t>
   </si>
   <si>
@@ -119,45 +101,24 @@
     <t>Contrato</t>
   </si>
   <si>
-    <t>Modelo der</t>
-  </si>
-  <si>
-    <t>Modelo de objeto</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Facilitar la implementacion</t>
   </si>
   <si>
     <t xml:space="preserve"> Separar la relacion mucho a muchos entre miembro y area</t>
   </si>
   <si>
-    <t>crear un enum tipo de espacio</t>
-  </si>
-  <si>
-    <t>crear subclases</t>
-  </si>
-  <si>
     <t>Por el momento no hay atributos diferentes que nos sirvan para el calculo del trayecto</t>
   </si>
   <si>
     <t>Agregar una lista Paradas en TransportePublico.</t>
   </si>
   <si>
-    <t xml:space="preserve">Modelo de objeto </t>
-  </si>
-  <si>
     <t>Organización, area</t>
   </si>
   <si>
     <t xml:space="preserve">Crear un metodo para obtener los trayectos </t>
   </si>
   <si>
-    <t xml:space="preserve">que la organización o area tengan como atributos a los trayectos </t>
-  </si>
-  <si>
-    <t>trayecto es algo que le pertecene al miembro y para que a futuro la organización pueda trabajar en esos trayectos</t>
-  </si>
-  <si>
     <t>Organización</t>
   </si>
   <si>
@@ -167,7 +128,43 @@
     <t>Se crea un enum para los tipos de clasificacion</t>
   </si>
   <si>
-    <t>No se dan todas las posibilidades pero con valores limitados tiene sentido usar el enum. En el que caso de surjan nuevos valores posibles se agregaran antes de la implementacion</t>
+    <t>Utilizar una entidad por subclase</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Que la organización o area tengan como atributos a los trayectos </t>
+  </si>
+  <si>
+    <t>Trayecto es algo que le pertecene al miembro y para que a futuro la organización pueda trabajar en esos trayectos</t>
+  </si>
+  <si>
+    <t>Crear subclases</t>
+  </si>
+  <si>
+    <t>Usar clase espacio para guardar las ubicaciones, y que estos sean el inicio y fin de cada Trayecto/Tramo.</t>
+  </si>
+  <si>
+    <t>Limitar que se use solo la clase Espacio y no cualquier String cuando se requiere ubicación, facilitar calculos de distancia</t>
+  </si>
+  <si>
+    <t>En el Area incluir la lista de Miembros y la Organización, considerando que un area es de una sola org.</t>
+  </si>
+  <si>
+    <t>Toma valores muy limitados por lo que tiene sentido usar el enum. No dan todos los valores posibles, pero si surgen nuevos  se pueden agregar antes de la implementacion</t>
+  </si>
+  <si>
+    <t>Utilizar un atributo ubicación de tipo String que represente la direccion en donde actualmente utilizamos Espacio</t>
+  </si>
+  <si>
+    <t>Crear un enum tipo de espacio</t>
+  </si>
+  <si>
+    <t>Modelo DER</t>
+  </si>
+  <si>
+    <t>Modelo de Objetos</t>
+  </si>
+  <si>
+    <t>Un Miembro puede conocer muchos Usuarios por esto la Autorizacion, un miembro puede autorizar a otro para que maneje su cuenta.</t>
   </si>
 </sst>
 </file>
@@ -196,7 +193,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -219,28 +216,18 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -259,7 +246,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -579,22 +566,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="24.85546875" customWidth="1"/>
-    <col min="3" max="3" width="90" customWidth="1"/>
-    <col min="4" max="5" width="101.42578125" customWidth="1"/>
+    <col min="3" max="3" width="91.85546875" customWidth="1"/>
+    <col min="4" max="4" width="101.42578125" customWidth="1"/>
+    <col min="5" max="5" width="155.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -611,186 +599,193 @@
     </row>
     <row r="2" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>4</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>8</v>
+        <v>39</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>9</v>
+        <v>43</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>10</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>48</v>
-      </c>
+      <c r="C12" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
